--- a/data/trans_dic/P37-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P37-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P37-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P37-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,8%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>10,67; 18,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>10,97; 19,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>25,12; 36,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>8,25; 16,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>12,1; 21,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>32,69; 41,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>10,59; 16,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>12,6; 18,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>30,49; 37,54</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,8%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>7,79; 13,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>14,5; 21,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>12,64; 19,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>23,41; 32,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>9,85; 15,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>14,18; 21,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>10,47; 16,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>27,87; 35,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>9,51; 13,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>14,92; 20,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>12,59; 17,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>27,2; 32,92</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,01%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>11,26; 19,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>16,84; 26,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>14,84; 23,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>24,26; 32,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>14,56; 23,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>14,37; 23,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>17,47; 26,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>27,31; 35,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>14,23; 20,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>16,65; 22,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>16,96; 23,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>26,65; 32,76</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,79%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>9,0; 15,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>14,5; 20,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>15,58; 23,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>26,89; 38,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>13,12; 20,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>17,43; 23,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>17,49; 26,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>28,97; 39,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>11,97; 16,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>17,09; 21,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>17,32; 23,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>29,86; 36,95</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,18%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>11,34; 21,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>12,17; 22,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>9,04; 18,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>25,79; 37,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>14,79; 25,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>14,73; 25,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>9,75; 19,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>33,96; 43,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>14,43; 21,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>14,84; 22,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>10,42; 16,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>31,54; 38,64</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,91%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>9,49; 17,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>16,97; 26,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>15,09; 24,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>22,88; 31,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>13,59; 22,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>18,3; 29,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>18,79; 28,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>32,14; 41,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>12,45; 18,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>18,42; 25,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>18,14; 25,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>28,5; 35,33</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,89%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>12,41; 18,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>14,41; 20,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>13,84; 20,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>28,91; 37,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>14,34; 20,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>13,75; 19,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>16,16; 22,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>35,68; 67,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>14,07; 18,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>15,03; 19,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>15,58; 19,92</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>33,91; 54,45</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,71%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>12,95; 17,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>13,15; 18,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>9,66; 14,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>28,55; 39,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>12,21; 17,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>13,6; 18,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>11,42; 16,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>38,21; 44,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>13,29; 16,98</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>14,36; 17,99</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>11,2; 14,62</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>34,88; 41,37</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,16%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,72; 15,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,35; 19,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,52; 16,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,89; 33,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,51; 17,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,91; 19,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,94; 18,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>35,94; 44,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>14,02; 15,75</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>17,03; 18,95</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,68; 17,44</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>33,7; 39,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P37-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P37-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>32,26%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,53; 21,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,12; 36,14</t>
+          <t>23,39; 34,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,16; 21,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,69; 41,2</t>
+          <t>31,53; 40,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,35; 19,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,49; 37,54</t>
+          <t>28,78; 36,23</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>29,11%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,41; 32,05</t>
+          <t>22,57; 31,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,87; 35,24</t>
+          <t>27,68; 35,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,2; 32,92</t>
+          <t>26,49; 32,19</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>29,4%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,26; 32,78</t>
+          <t>23,62; 32,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,31; 35,73</t>
+          <t>26,91; 35,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,65; 32,76</t>
+          <t>26,1; 32,12</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>30,22%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,5; 20,63</t>
+          <t>13,9; 22,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,89; 38,76</t>
+          <t>26,25; 38,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,43; 23,56</t>
+          <t>20,08; 28,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,97; 39,1</t>
+          <t>16,29; 36,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,09; 21,52</t>
+          <t>17,87; 23,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,86; 36,95</t>
+          <t>22,68; 34,95</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>35,41%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,79; 37,11</t>
+          <t>25,84; 37,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33,96; 43,37</t>
+          <t>34,2; 43,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,54; 38,64</t>
+          <t>31,82; 38,88</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>36,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>31,56%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,88; 31,71</t>
+          <t>22,4; 31,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,14; 41,44</t>
+          <t>32,17; 41,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>28,5; 35,33</t>
+          <t>28,14; 34,99</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>43,17%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,91; 37,04</t>
+          <t>27,66; 35,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,68; 67,21</t>
+          <t>35,37; 77,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,91; 54,45</t>
+          <t>33,14; 63,99</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>42,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>34,32%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>28,55; 39,79</t>
+          <t>13,51; 39,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,21; 44,64</t>
+          <t>38,84; 45,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>34,88; 41,37</t>
+          <t>20,93; 41,29</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>34,16%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>29,89; 33,41</t>
+          <t>22,78; 31,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>35,94; 44,22</t>
+          <t>34,66; 49,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>33,7; 39,35</t>
+          <t>31,0; 41,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P37-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P37-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 18,76</t>
+          <t>10,78; 19,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,53; 21,86</t>
+          <t>12,82; 22,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,97; 19,12</t>
+          <t>11,19; 19,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,39; 34,85</t>
+          <t>23,59; 35,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 16,49</t>
+          <t>8,4; 16,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,16; 21,42</t>
+          <t>12,25; 21,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,1; 21,21</t>
+          <t>11,75; 21,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,53; 40,46</t>
+          <t>31,64; 41,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 16,68</t>
+          <t>10,75; 16,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,35; 19,97</t>
+          <t>13,56; 19,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 18,76</t>
+          <t>12,45; 18,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,78; 36,23</t>
+          <t>28,48; 35,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,79; 13,6</t>
+          <t>7,56; 13,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 21,56</t>
+          <t>14,25; 21,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 19,12</t>
+          <t>12,97; 19,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,57; 31,19</t>
+          <t>22,92; 31,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,85; 15,55</t>
+          <t>9,95; 15,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 21,04</t>
+          <t>13,95; 20,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,47; 16,81</t>
+          <t>10,23; 16,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,68; 35,01</t>
+          <t>27,76; 34,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 13,54</t>
+          <t>9,4; 13,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,92; 20,19</t>
+          <t>15,16; 20,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 17,15</t>
+          <t>12,58; 17,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,49; 32,19</t>
+          <t>26,19; 32,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 19,0</t>
+          <t>11,54; 19,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,84; 26,13</t>
+          <t>16,41; 26,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,84; 23,33</t>
+          <t>15,01; 23,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,62; 32,07</t>
+          <t>22,82; 31,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 23,23</t>
+          <t>14,75; 23,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 23,34</t>
+          <t>15,16; 23,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,47; 26,68</t>
+          <t>17,17; 26,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,91; 35,28</t>
+          <t>27,42; 35,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,23; 20,25</t>
+          <t>14,48; 20,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,65; 22,74</t>
+          <t>16,76; 22,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,96; 23,19</t>
+          <t>17,31; 23,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,1; 32,12</t>
+          <t>26,72; 32,43</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,0; 15,83</t>
+          <t>8,87; 15,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,9; 22,38</t>
+          <t>13,9; 22,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,58; 23,7</t>
+          <t>15,75; 23,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,25; 38,22</t>
+          <t>26,24; 38,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,12; 20,49</t>
+          <t>12,97; 20,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,08; 28,27</t>
+          <t>19,39; 28,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,49; 26,34</t>
+          <t>16,85; 25,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,29; 36,25</t>
+          <t>17,39; 36,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 16,93</t>
+          <t>11,85; 16,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,87; 23,78</t>
+          <t>17,88; 23,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,32; 23,21</t>
+          <t>17,05; 23,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 34,95</t>
+          <t>22,96; 35,59</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,34; 21,06</t>
+          <t>10,94; 21,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,17; 22,81</t>
+          <t>11,83; 23,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 18,17</t>
+          <t>9,6; 18,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,84; 37,14</t>
+          <t>25,48; 37,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,79; 25,91</t>
+          <t>14,54; 26,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,73; 25,36</t>
+          <t>14,14; 25,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 19,51</t>
+          <t>9,34; 19,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,2; 43,64</t>
+          <t>34,63; 43,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,43; 21,85</t>
+          <t>14,1; 21,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,84; 22,03</t>
+          <t>14,15; 21,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,42; 16,88</t>
+          <t>10,62; 17,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,82; 38,88</t>
+          <t>31,84; 38,85</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,49; 17,79</t>
+          <t>9,55; 17,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,97; 26,82</t>
+          <t>16,27; 26,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,09; 24,64</t>
+          <t>14,69; 24,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,4; 31,15</t>
+          <t>22,74; 30,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,59; 22,99</t>
+          <t>13,58; 22,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,3; 29,0</t>
+          <t>18,42; 28,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,79; 28,95</t>
+          <t>18,42; 29,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,17; 41,49</t>
+          <t>32,71; 41,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,45; 18,78</t>
+          <t>12,22; 18,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,42; 25,52</t>
+          <t>18,54; 26,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,14; 25,42</t>
+          <t>18,16; 25,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>28,14; 34,99</t>
+          <t>28,59; 34,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,41; 18,25</t>
+          <t>12,19; 18,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,41; 20,56</t>
+          <t>14,2; 20,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,84; 20,0</t>
+          <t>13,59; 19,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,66; 35,75</t>
+          <t>27,56; 35,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,34; 20,43</t>
+          <t>14,46; 20,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,75; 19,98</t>
+          <t>13,8; 19,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,16; 22,38</t>
+          <t>16,34; 22,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,37; 77,31</t>
+          <t>35,08; 73,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,07; 18,21</t>
+          <t>13,9; 18,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,03; 19,35</t>
+          <t>14,87; 19,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,58; 19,92</t>
+          <t>15,95; 20,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,14; 63,99</t>
+          <t>33,01; 64,73</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,95; 17,91</t>
+          <t>12,79; 18,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,15; 18,59</t>
+          <t>13,28; 18,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,66; 14,35</t>
+          <t>9,94; 14,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,51; 39,28</t>
+          <t>11,55; 39,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,21; 17,73</t>
+          <t>12,38; 17,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,6; 18,68</t>
+          <t>13,45; 18,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,42; 16,93</t>
+          <t>11,38; 16,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,84; 45,18</t>
+          <t>39,0; 45,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,29; 16,98</t>
+          <t>13,36; 16,81</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,36; 17,99</t>
+          <t>14,15; 18,05</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>11,2; 14,62</t>
+          <t>11,23; 14,82</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>20,93; 41,29</t>
+          <t>21,56; 41,0</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,72; 15,11</t>
+          <t>12,68; 14,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,35; 19,04</t>
+          <t>16,36; 19,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,52; 16,93</t>
+          <t>14,53; 17,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,78; 31,9</t>
+          <t>22,33; 31,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,51; 17,12</t>
+          <t>14,55; 17,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,91; 19,58</t>
+          <t>16,95; 19,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,94; 18,83</t>
+          <t>15,93; 18,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>34,66; 49,65</t>
+          <t>34,91; 50,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>14,02; 15,75</t>
+          <t>14,07; 15,81</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>17,03; 18,95</t>
+          <t>17,03; 18,89</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>15,68; 17,44</t>
+          <t>15,56; 17,43</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>31,0; 41,2</t>
+          <t>30,79; 40,34</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha vacunado de la gripe en la última campaña</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>40216</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>49773</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>43363</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>88939</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31602</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>47244</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>46476</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>104967</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>71818</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>97016</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>89839</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>193905</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>29324; 52490</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37792; 64894</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>32880; 57212</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>73477; 110054</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21921; 43107</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>35180; 62694</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33926; 60679</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>91636; 119209</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>57290; 89685</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>78913; 116162</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>72529; 107477</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>171168; 216009</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50908</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>89649</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>79730</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>139642</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>62316</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>90777</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>69571</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>161149</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>113224</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>180426</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>149302</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>300791</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>37270; 65820</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>72048; 110164</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>65203; 99318</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>118819; 164795</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50037; 79313</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>73039; 108783</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>53537; 88443</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>142939; 179134</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>93652; 133610</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>156001; 207975</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>129046; 175752</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>270634; 331013</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>48069</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>67084</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>59743</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>86636</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>63452</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>63677</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>72567</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>108912</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>111521</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>130761</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>132310</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>195548</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>36792; 61069</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>52846; 83779</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47812; 73638</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>72137; 101065</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>49469; 77253</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>51541; 79984</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>57731; 89132</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>95739; 122974</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>94731; 133681</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>110943; 150840</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>113348; 154845</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>177725; 215698</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43285</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>66518</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>71425</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>100909</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>61621</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>91926</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>82109</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>137284</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>104906</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>158444</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>153534</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>238193</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>31801; 57077</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>51979; 83817</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>58267; 88071</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>82022; 119727</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>48188; 74720</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>75405; 110634</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>65241; 99211</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>82708; 172427</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>86500; 123431</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>136417; 182783</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>129081; 177797</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>180979; 280552</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>31552</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35500</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>27855</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>55996</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>41090</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>42387</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30232</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>81042</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>72642</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>77887</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>58087</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>137038</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22236; 42804</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25023; 48893</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20270; 38299</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>45540; 66150</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>30068; 55681</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>31043; 55349</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20425; 42299</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>72131; 90863</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>57803; 88496</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>61017; 93935</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>45647; 73967</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>123208; 150342</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>35450</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>57913</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>50688</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>71163</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>48894</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>64315</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>63852</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>95084</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>84344</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>122228</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>114540</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>166247</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>25852; 47582</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>44587; 71541</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>38641; 63721</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>61320; 82845</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>37764; 63404</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>51579; 79998</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>50298; 79450</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>84093; 107022</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>67056; 100662</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>102723; 144269</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>97382; 135373</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>150565; 184004</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>92522</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>113894</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>108611</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>197308</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>109667</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>116140</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>133541</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>438752</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>202189</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>230034</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>242152</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>636060</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>74896; 111247</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>94091; 134809</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>89212; 129540</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>172026; 221126</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>92305; 128981</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>95737; 138535</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>112992; 156634</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>297942; 621831</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>174095; 227754</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>201726; 260984</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>214960; 274645</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>486364; 953869</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>112484</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>123840</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>92932</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>262849</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>116700</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>132885</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>114532</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>301387</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>229184</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>256725</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>207464</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>564236</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>95133; 134625</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>103192; 146721</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>77406; 113889</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>107268; 365814</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>97026; 138743</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>110767; 154901</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>94039; 134300</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>279028; 323051</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>204022; 256731</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>226509; 288915</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>180186; 237825</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>354399; 674165</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1328</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2238</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3566</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>454486</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>604171</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>534348</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1003443</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>535342</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>649351</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>612880</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1428576</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>989828</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1253522</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1147228</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2432019</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>415220; 490166</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>559635; 654722</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>493254; 581097</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>772581; 1102113</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>491392; 576847</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>602855; 697599</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>564712; 659929</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1277459; 1863471</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>936157; 1051755</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1188426; 1318334</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1079768; 1209766</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2191821; 2871650</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>